--- a/biology/Médecine/Commission_des_Affaires_sociales_(Sénat)/Commission_des_Affaires_sociales_(Sénat).xlsx
+++ b/biology/Médecine/Commission_des_Affaires_sociales_(Sénat)/Commission_des_Affaires_sociales_(Sénat).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Commission_des_Affaires_sociales_(S%C3%A9nat)</t>
+          <t>Commission_des_Affaires_sociales_(Sénat)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Au Sénat français, la commission des Affaires sociales (SOCI[a]) est une commission permanente compétente dans les champs de l’aide et l’action sociales, des anciens combattants, du droit du travail, de la formation professionnelle, du logement social, des outre-mer, des politiques familiale, de solidarité et du handicap, de la santé, ainsi que de la Sécurité sociale.
 Instituée par la résolution du 19 janvier 1959 portant règlement provisoire du Sénat, elle se réunit pour la première fois le 6 mai suivant après le scrutin intégral fondant la chambre le 26 avril. À la suite du renouvellement sénatorial du 24 septembre 2023, la présidence de la commission est occupée par Philippe Mouiller (Les Républicains) à partir du 5 octobre 2023.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Commission_des_Affaires_sociales_(S%C3%A9nat)</t>
+          <t>Commission_des_Affaires_sociales_(Sénat)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La commission des Affaires sociales est instituée par la résolution sénatoriale du 16 janvier 1959 portant règlement provisoire du Sénat. Il s’agit d’une des six commissions de sénateurs qualifiées de permanentes créées au début de la Ve République avec celle des Affaires culturelles, celle des Affaires économiques et du Plan, celle des Affaires étrangères, de la Défense et des Forces armées, celle des Finances, du Contrôle budgétaire et des Comptes économiques de la Nation ainsi que celle des Lois constitutionnelles, de Législation, du Suffrage universel, du Règlement et d’Administration générale[α].
 Le premier bureau de la commission est constitué le 6 mai 1959 à la suite des élections sénatoriales intégrales survenues le 26 avril 1959 en Métropole et dans les départements et territoires d’outre-mer[b] afin de permettre l’institution du Sénat au sens de la Constitution du 4 octobre 1958. Au cours de cette session parlementaire, la commission est intégrée au règlement définitif du Sénat par une résolution sénatoriale du 9 juin 1959[i 1],[β],[i 2].
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Commission_des_Affaires_sociales_(S%C3%A9nat)</t>
+          <t>Commission_des_Affaires_sociales_(Sénat)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Rôle et missions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le champ de compétences de la commission recouvre l’aide et l’action sociales, les anciens combattants, le droit du travail, la formation professionnelle, le logement social, les outre-mer, les politiques familiale, de solidarité et du handicap, la santé, ainsi que la Sécurité sociale. En outre, elle est chargée de l’examen des lois de financement de la Sécurité sociale.
 Elle commet des rapports d’information, des rapports législatifs ou des rapports budgétaires[j 3]. Deux groupes d’études, celui sur le Cancer et celui des Sénateurs anciens combattants et de la Mémoire combattante, sont placés sous son contrôle depuis 2017[j 4].
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Commission_des_Affaires_sociales_(S%C3%A9nat)</t>
+          <t>Commission_des_Affaires_sociales_(Sénat)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,15 +597,125 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Présidence
-À chaque renouvellement triennal du Sénat, le président est la première des personnalités constituant le bureau élue par les autres membres de la commission lors de sa réunion constitutive. Il peut être suppléé ou représenté par un des vice-présidents.
-Bureau
-Le bureau se constitue du président, des vice-présidents, des secrétaires et du rapporteur général. Tous sont élus par les membres de la commission[γ],[δ].
+          <t>Présidence</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À chaque renouvellement triennal du Sénat, le président est la première des personnalités constituant le bureau élue par les autres membres de la commission lors de sa réunion constitutive. Il peut être suppléé ou représenté par un des vice-présidents.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Commission_des_Affaires_sociales_(Sénat)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Commission_des_Affaires_sociales_(S%C3%A9nat)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bureau</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bureau se constitue du président, des vice-présidents, des secrétaires et du rapporteur général. Tous sont élus par les membres de la commission[γ],[δ].
 Le président et les vice-présidents font l’objet d’une élection au scrutin secret depuis la résolution du 25 octobre 1979[ε]. Le rapporteur général est soumis à ce type de scrutin depuis la résolution du 18 juin 2019[ζ].
-Rapporteur général
-La commission est dotée d’un rapporteur général depuis 2009[λ].
-Membres
-Les membres de la commission des Affaires sociales sont désignés en séance plénière du Sénat. Leur nombre varie depuis 1959.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Commission_des_Affaires_sociales_(Sénat)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Commission_des_Affaires_sociales_(S%C3%A9nat)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Rapporteur général</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La commission est dotée d’un rapporteur général depuis 2009[λ].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Commission_des_Affaires_sociales_(Sénat)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Commission_des_Affaires_sociales_(S%C3%A9nat)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Membres</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les membres de la commission des Affaires sociales sont désignés en séance plénière du Sénat. Leur nombre varie depuis 1959.
 </t>
         </is>
       </c>
